--- a/Analyses/main study - LLM/output/socially assistive robots.xlsx
+++ b/Analyses/main study - LLM/output/socially assistive robots.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Efficiency and Time-Saving</t>
+          <t>24/7 availability</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rigid robots can increase efficiency, save time, and provide 24/7 support, allowing caregivers to focus on other tasks.</t>
+          <t>Rigid robots can provide continuous care and support, available at any time, without breaks or rest periods.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multifunctionality and Adaptability</t>
+          <t>Efficiency increase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rigid robots can perform various tasks, adapt to different situations, and be easily updated, making them versatile and efficient.</t>
+          <t>Rigid robots can take over routine activities, freeing up caregivers' time, and can be easily updated with new knowledge, making them more efficient.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Health and Therapy</t>
+          <t>Multifunctional</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rigid robots can assist in health therapy, monitor vital signs, and provide medical help, improving overall healthcare.</t>
+          <t>Rigid robots can perform various tasks, are versatile in their use, and can be programmed differently for various purposes.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Education and Learning</t>
+          <t>Learning and adaptability</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rigid robots can aid in education, provide personalized learning, and offer a faster learning ability compared to humans.</t>
+          <t>Rigid robots can learn through updates, adapt to new situations, and can be individualized to meet specific user needs.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Availability and Accessibility</t>
+          <t>Health and therapy</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rigid robots can be used at any time, are always available, and can be easily accessed, making them a reliable option.</t>
+          <t>Rigid robots can assist in health therapy, monitor vital signs, and provide medical help, making them valuable in healthcare.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tailored Therapy</t>
+          <t>Tailored therapy</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Soft robots can provide tailored therapy and be used in different settings, offering a more personalized approach.</t>
+          <t>Soft robots can provide personalized therapy, adapted to individual needs and settings.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Soft robots can be versatile and used in various ways, making them a valuable asset.</t>
+          <t>Soft robots can be used in different settings and can be easily adapted to various tasks.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Improved Data Analysis</t>
+          <t>Improved data analysis</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Soft robots can improve data analysis, leading to better insights and decision-making.</t>
+          <t>Soft robots can assist in data analysis, providing valuable insights and improving healthcare outcomes.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ease of Use</t>
+          <t>Ease of use</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Soft robots are easy to use, making them accessible to a wider range of people.</t>
+          <t>Soft robots are designed to be user-friendly, making them accessible to a wide range of users.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Soft robots can increase accessibility, providing assistance to those who need it most.</t>
+          <t>Soft robots can provide assistance to people in need, improving their overall quality of life.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Risk of malfunction and technical errors.</t>
+          <t>Rigid robots are prone to technical problems, malfunctions, and breakdowns, which can lead to safety risks and limited help in emergency situations.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rigid robots have limited learning ability and adaptability.</t>
+          <t>Rigid robots have limited learning abilities and may not be able to adapt to new situations or understand human emotions, leading to limitations in their assistance.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rigid robots lack emotions and feelings, making them unsuitable for certain tasks.</t>
+          <t>Rigid robots lack emotions and feelings, which can make them seem unapproachable or unhelpful in certain situations, and may not be able to provide emotional support.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rigid robots can be difficult to configure and operate.</t>
+          <t>Rigid robots can be difficult to configure and operate, requiring specialized expertise and potentially leading to technical errors or misprogramming.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>prone to errors</t>
+          <t>technological limits</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rigid robots may not understand glaring errors and can make mistakes.</t>
+          <t>Rigid robots have technological limitations that can lead to defects, errors, and limited customization options, making them less effective in certain situations.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Soft robots may have a lower inhibition threshold, making them more approachable.</t>
+          <t>Soft robots may have a lower inhibition threshold, making them more approachable and easier to interact with, but also potentially leading to over-reliance on them.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Soft robots may have better future prospects due to their potential for adaptability and customization.</t>
+          <t>Soft robots may have uncertain future prospects, with concerns about what will happen when experts are no longer available to maintain or repair them.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Efficient and Precise</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rigid robots can perform tasks efficiently and precisely, making them reliable in emergency situations.</t>
+          <t>Rigid robots can perform tasks efficiently and precisely, making them reliable in emergency situations and daily tasks.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rigid robots can continuously monitor health and respond quickly in emergency situations, reducing the need for human intervention.</t>
+          <t>Rigid robots can continuously monitor health and respond quickly in emergency situations, making them a valuable asset in healthcare.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Rigid robots do not make mistakes, reducing the risk of injury or infection, and are always correct in their execution.</t>
+          <t>Rigid robots do not get sick, infected, or make mistakes, making them a reliable choice for tasks that require accuracy and precision.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Adaptability</t>
+          <t>Continuous Operation</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rigid robots can learn and adapt to new situations, making them more efficient and reliable over time.</t>
+          <t>Rigid robots can operate continuously without breaks, making them ideal for tasks that require constant monitoring and assistance.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hygiene</t>
+          <t>Ability to Learn</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rigid robots do not get infected or spread diseases, making them a hygienic option for health monitoring and assistance.</t>
+          <t>Rigid robots can learn and adapt, making them more efficient and effective over time.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Soft robots reduce the risk of injury due to their soft and flexible materials, making them a safer option for human interaction.</t>
+          <t>Soft robots are safer due to their soft materials, reducing the risk of injury and making them ideal for tasks that require human interaction.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Animal Protection</t>
+          <t>Lower Risk of Injury</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Soft robots can be used to protect animals from potentially harmful behavior by owners, promoting animal welfare.</t>
+          <t>Soft robots are less likely to cause injury due to their softness, making them a safer choice for tasks that require physical interaction.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Animal Protection</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Soft robots are always ready and can make logical decisions, reducing the risk of human error and promoting reliability.</t>
+          <t>Soft robots can be used to protect animals from potentially harmful behavior by owners, making them a valuable asset in animal care.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Soft robots can capture and assign data faster than humans, making them a more efficient option for certain tasks.</t>
+          <t>Soft robots are always ready and can make logical decisions, making them a reliable choice for tasks that require consistency and accuracy.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Reduced Risk</t>
+          <t>Decision-Making Options</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Soft robots reduce the risk of injury and promote safety through their soft and flexible materials, making them a preferred option.</t>
+          <t>Soft robots can make logical decisions better than humans, making them a valuable asset in tasks that require objective decision-making.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Rigid robots can make brutal mistakes due to technical errors.</t>
+          <t>Rigid robots can make brutal mistakes and have unforeseen reactions due to technical errors, which can lead to accidents and endanger humans.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>data security</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Rigid robots can pose a danger to humans due to malfunctions or bugs.</t>
+          <t>There are concerns about data protection issues and information security, as data losses can occur and pose a danger, and it's impossible to be 100% sure about data security.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>data security</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rigid robots may have data security issues, making it impossible to be 100% sure of data protection.</t>
+          <t>Rigid robots can malfunction and cause accidents, which can negatively affect their use and even cost human lives, making safety a major concern.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The consequences of a data leak or malfunction in rigid robots are unknown and unregulated.</t>
+          <t>There is uncertainty about the consequences of a data leak or malfunction, as there are no rules yet about social assistance robots, and software problems can never be ruled out.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rigid robots can negatively affect their users if they break down or malfunction.</t>
+          <t>Device failure or malfunctions can negatively affect the use of rigid robots and lead to accidents, making repair and maintenance crucial.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Soft robots can still cause injury, especially if faulty or processed incorrectly.</t>
+          <t>Soft robots can still pose a risk of injury, especially if they are faulty or malfunction, and can lead to helplessness in case of failures.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>helplessness in case of failures</t>
+          <t>environmental conditions</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Technical problems with soft robots can cause feelings of helplessness.</t>
+          <t>Soft robots can be affected by environmental conditions such as power outages, which can render them useless, unlike human professionals who can still work.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Soft robots can lead to interpersonal desensitization and other dangers similar to rigid robots.</t>
+          <t>Soft robots can lead to interpersonal desensitization and have similar dangers to rigid robots, making it important to consider their potential risks.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>environmental conditions</t>
+          <t>helplessness in case of failures</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Soft robots may be affected by environmental conditions like power outages, limiting their functionality.</t>
+          <t>Technical problems with soft robots can cause helplessness, which can be a concern, especially in situations where they are relied upon for assistance.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>safety concerns</t>
+          <t>type of robot</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Soft robots still raise safety concerns, although they may be less intense than those of rigid robots.</t>
+          <t>The type of soft robot and its specifications can affect its potential risks and limitations, making it important to consider these factors.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rigid robots can help isolated people, elderly, and those with special needs to interact and feel more connected.</t>
+          <t>Rigid robots can help people with social anxiety or those who are isolated to interact and establish emotional connections, promoting social integration and reducing feelings of loneliness.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Rigid robots can provide individualized care, learning, and therapy, catering to specific needs and abilities.</t>
+          <t>Rigid robots can be programmed to cater to individual needs, providing personalized support and care, especially for people with special needs or disabilities.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>emotional relationships</t>
+          <t>increased interaction</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Rigid robots can establish emotional connections, helping people with anxiety, depression, and loneliness.</t>
+          <t>Rigid robots can encourage people to interact more, helping to establish emotional connections and reduce feelings of loneliness, especially for the elderly or those with social anxiety.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>practical assistance</t>
+          <t>support for learning</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rigid robots can take over unpleasant tasks, provide everyday help, and assist with physical care, reducing shame and discomfort.</t>
+          <t>Rigid robots can provide additional support for children with learning difficulties, helping them to learn at their own pace and promoting individualized learning.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>increased interaction</t>
+          <t>emotional relationships</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rigid robots can promote social interactions, encourage communication, and help people practice social situations.</t>
+          <t>Rigid robots can establish emotional connections with people, providing companionship and emotional support, especially for those who lack human contact.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Soft robots can create a strong emotional connection, providing comfort and companionship to people in need.</t>
+          <t>Soft robots can create a strong emotional bond with people, especially those with autism or similar disorders, providing a sense of comfort and companionship.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Soft robots can mimic human-like movements and reactions, making interactions feel more natural and comfortable.</t>
+          <t>Soft robots can mimic human-like movements and reactions, making interactions feel more natural and comfortable, especially for people who value tactility.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Soft robots can provide a pleasant tactile experience, which is especially important for people who value physical touch.</t>
+          <t>Soft robots can provide a sense of touch and physical comfort, which can be especially beneficial for people who are 'touch starved' or have difficulty with human physical contact.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Soft robots can be customized to meet individual needs, providing a more personalized and effective support system.</t>
+          <t>Soft robots can be customized to meet individual needs, providing a more personalized and comfortable experience, especially for people with specific requirements or allergies.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Soft robots can have a friendly and non-intimidating appearance, making them more approachable and acceptable to users.</t>
+          <t>Soft robots can have a friendly and non-threatening appearance, making them more approachable and comfortable to interact with, especially for people who are anxious or fearful.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>People may become too reliant on rigid robots, leading to a loss of human interaction and social skills.</t>
+          <t>Participants expressed concerns that people might become too dependent on rigid robots, leading to a lack of human interaction and potentially unhealthy relationships.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>lack of empathy</t>
+          <t>lack of human contact</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Rigid robots may not be able to adequately address emotions, leading to a lack of empathy and understanding.</t>
+          <t>Rigid robots may replace human caregivers, leading to a decrease in genuine human contact and emotional support for individuals in need.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>no human contact</t>
+          <t>impersonal interaction</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rigid robots may replace human caregivers, leading to a lack of genuine human contact and social interaction.</t>
+          <t>Rigid robots are seen as impersonal and unable to provide the emotional warmth and empathy that humans can offer, leading to feelings of discomfort and isolation.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>impersonal</t>
+          <t>reduction of social contacts</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Rigid robots are not humans and may be perceived as impersonal, leading to feelings of discomfort and fear.</t>
+          <t>The use of rigid robots may lead to a reduction in social contacts and human relationships, potentially exacerbating feelings of loneliness and isolation.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>reduction of social contacts</t>
+          <t>lack of empathy</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Rigid robots may lead to a reduction in social contacts, exacerbating feelings of loneliness and isolation.</t>
+          <t>Rigid robots may struggle to adequately address and respond to human emotions, leading to a lack of empathy and understanding in human-robot interactions.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Soft robots may lead to emotional dependence, with people treating them like real animals or companions.</t>
+          <t>Participants worried that people might form strong emotional bonds with soft robots, leading to unhealthy dependencies and a decrease in human interaction.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>dependency</t>
+          <t>dependency risk</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Soft robots may create a risk of dependency, leading to a loss of human interaction and social skills.</t>
+          <t>Soft robots may create a risk of dependency, particularly for individuals who are already isolated or have difficulty forming human connections.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Soft robots may lead to unhealthy relationships, with people developing strong emotional attachments to them.</t>
+          <t>The use of soft robots may lead to unhealthy relationships between humans and robots, potentially replacing human relationships and exacerbating social isolation.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Soft robots may not be able to account for individual differences in people, leading to varying responses and reactions.</t>
+          <t>Soft robots may not be able to accommodate the individual needs and preferences of people, leading to potential miscommunications and misunderstandings.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>strong emotional dependence</t>
+          <t>loss of social skills</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Soft robots may lead to strong emotional dependence, with people experiencing negative reactions when they break down.</t>
+          <t>Over-reliance on soft robots may lead to a decline in social skills and human interaction, potentially causing long-term negative effects on mental and emotional well-being.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rigid robots can recognize emotions, providing emotional support and therapy.</t>
+          <t>Rigid robots can recognize emotions and provide emotional support, which is beneficial in therapy and crisis situations.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Rigid robots have a calm disposition, making them suitable for emotional crisis situations.</t>
+          <t>Rigid robots have a calm disposition, which makes them suitable for working with patients who are uncomfortable or traumatized.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rigid robots can help traumatized children confide in them, providing a sense of comfort.</t>
+          <t>Rigid robots can help traumatized children confide in them, and provide a sense of comfort and security.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rigid robots can engage in movement activities with preschool children, making learning more enjoyable.</t>
+          <t>Rigid robots can participate in movement instructions, making them engaging for preschool children and promoting physical activity.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Better recognition of emotions</t>
+          <t>Humanity AI</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Rigid robots can quickly notice and respond to human emotions, providing better emotional support.</t>
+          <t>Advanced AI in rigid robots can make them hard to distinguish from real humans, enabling more natural interactions.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Human-like</t>
+          <t>Physical proximity possible</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Soft robots can mimic human-like qualities, evoking emotions and empathy.</t>
+          <t>Soft robots allow for physical proximity and closeness, enabling a sense of comfort and emotional connection.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Emotional affection</t>
+          <t>Human-like</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Soft robots can provide emotional affection, similar to a pet, without the disadvantages.</t>
+          <t>Soft robots can feel like humans through their soft fabrics, promoting a sense of empathy and emotional connection.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Feeling of empathy</t>
+          <t>Emotional support</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Soft robots can appear more empathetic due to their lifelike nature, providing comfort and support.</t>
+          <t>Soft robots can provide emotional support and affection, similar to a pet, without the disadvantages of pet ownership.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Soft robots can establish a closer bond with humans, making them feel more comfortable and supported.</t>
+          <t>Soft robots enable a closer bond between humans and robots, promoting social support and companionship.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,17 +1915,237 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Social support</t>
+          <t>Robot as friend</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Soft robots can provide social support, helping to alleviate loneliness and isolation.</t>
+          <t>Soft robots can serve as friends and listeners, helping individuals cope with thoughts and feelings.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>AP</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>lack of empathy</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Rigid robots are perceived as unable to respond to emotions, lacking human-like empathy, and only offering artificial empathy.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>uncanny valley</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Rigid robots can evoke a sense of eeriness or discomfort due to their anthropomorphic design, making them seem creepy or alien.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>limitation</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rigid robots are seen as limited in their ability to replace human communication, lacking the nuance and complexity of human interaction.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>no human warmth</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Rigid robots are perceived as emotionally cold, unable to provide human warmth, gentle touch, or comfort.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>replacement impossible</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Rigid robots are seen as unable to fully replace human interaction, which is complex and nuanced, and cannot be replicated by a mechanical device.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>disappearing boundaries</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Soft robots blur the line between human and machine, making it difficult to distinguish between the two.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>feigning empathy</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Soft robots are seen as deceptive in their reactions, suggesting empathy but lacking true emotional understanding or feelings.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>reading emotions</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Soft robots can misinterpret emotions, leading to inaccurate or inappropriate responses.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>limited emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Soft robots are perceived as having limited emotional intelligence, unable to fully understand or respond to human emotions.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>only fake empathy</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Soft robots are seen as offering only artificial empathy, lacking genuine emotional connection or understanding.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>AN</t>
         </is>
       </c>
     </row>
